--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967996.8427369118</v>
+        <v>1015710.240449185</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581892</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843294</v>
+        <v>2305207.638772117</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6031782.201192401</v>
+        <v>6531212.571389475</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>63.48779749612592</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>139.209869737021</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -829,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>272.5018050100015</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -902,19 +904,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.1401089299511</v>
+        <v>221.361858696556</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>152.5168019860618</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1133,13 +1135,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>310.6591179971107</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>198.9926249238804</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1302,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>14.14416275345401</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1373,13 +1375,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>182.5224157514565</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>202.3889873441468</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>82.64119670414993</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1610,16 +1612,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>148.3555818371252</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>268.1294843555607</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.49380289235361</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.64119670415049</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>19.8008763003435</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3673,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3749,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>401.2917783829651</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>117.7606824929577</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>43.4889870101594</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3986,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>362.5282535825034</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>27.85979142137953</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.728342244613</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="C2" t="n">
-        <v>1245.728342244613</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="D2" t="n">
-        <v>809.818557419057</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E2" t="n">
-        <v>809.818557419057</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F2" t="n">
-        <v>745.6894690391318</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G2" t="n">
-        <v>344.2916376623957</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M2" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.012383954615</v>
+        <v>3220.790453198636</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.012383954615</v>
+        <v>2858.173503132462</v>
       </c>
       <c r="W2" t="n">
-        <v>2073.156929365648</v>
+        <v>2453.318048543496</v>
       </c>
       <c r="X2" t="n">
-        <v>1654.014465944959</v>
+        <v>2034.175585122807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1245.728342244613</v>
+        <v>1625.88946142246</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O3" t="n">
-        <v>732.2102786755574</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>971.0711138117297</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C4" t="n">
-        <v>798.5094022949546</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D4" t="n">
-        <v>632.6314094964773</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E4" t="n">
-        <v>462.8734057472146</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F4" t="n">
-        <v>286.1663517089709</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G4" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H4" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2715.81686534297</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2715.81686534297</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T4" t="n">
-        <v>2469.937418921425</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U4" t="n">
-        <v>2194.683070426474</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V4" t="n">
-        <v>1907.727562296905</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W4" t="n">
-        <v>1635.701157883196</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X4" t="n">
-        <v>1390.309403216609</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y4" t="n">
-        <v>1162.889732530717</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1356.664380965676</v>
+        <v>1782.944134917016</v>
       </c>
       <c r="C5" t="n">
-        <v>918.5219081490998</v>
+        <v>1344.80166210044</v>
       </c>
       <c r="D5" t="n">
-        <v>482.6121233235442</v>
+        <v>908.8918772748841</v>
       </c>
       <c r="E5" t="n">
-        <v>482.6121233235442</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M5" t="n">
-        <v>666.6506660403358</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N5" t="n">
-        <v>1344.116250983141</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T5" t="n">
-        <v>2517.167459510636</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U5" t="n">
-        <v>2517.167459510636</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V5" t="n">
-        <v>2180.662298975332</v>
+        <v>3441.527747111927</v>
       </c>
       <c r="W5" t="n">
-        <v>1775.806844386366</v>
+        <v>3036.67229252296</v>
       </c>
       <c r="X5" t="n">
-        <v>1356.664380965676</v>
+        <v>2617.529829102271</v>
       </c>
       <c r="Y5" t="n">
-        <v>1356.664380965676</v>
+        <v>2209.243705401924</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N6" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="O6" t="n">
-        <v>732.2102786755574</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D7" t="n">
-        <v>404.381005540484</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E7" t="n">
-        <v>234.6230017912213</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F7" t="n">
-        <v>57.91594775297747</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2535.904745842886</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2290.025299421341</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2011.592298674447</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1724.636790544877</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1452.610386131169</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1207.218631464581</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>979.7989607786893</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1173.140109257064</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C8" t="n">
-        <v>1173.140109257064</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D8" t="n">
-        <v>1173.140109257064</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E8" t="n">
-        <v>1173.140109257064</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F8" t="n">
-        <v>745.2726796662719</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G8" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M8" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N8" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.437597751627</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W8" t="n">
-        <v>2018.582143162661</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="X8" t="n">
-        <v>1599.439679741972</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y8" t="n">
-        <v>1599.439679741972</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M9" t="n">
-        <v>363.05328532595</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N9" t="n">
-        <v>1040.518870268755</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="O9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.8207098557364</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C10" t="n">
-        <v>570.2589983389613</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D10" t="n">
-        <v>404.381005540484</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E10" t="n">
-        <v>234.6230017912213</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F10" t="n">
-        <v>220.3359687069243</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.6393285747235</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>894.2849979260648</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C11" t="n">
-        <v>456.1425251094881</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D11" t="n">
-        <v>456.1425251094881</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E11" t="n">
-        <v>456.1425251094881</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F11" t="n">
-        <v>456.1425251094881</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M11" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N11" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V11" t="n">
-        <v>2552.868610120975</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W11" t="n">
-        <v>2148.013155532009</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X11" t="n">
-        <v>1728.870692111319</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y11" t="n">
-        <v>1320.584568410973</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O12" t="n">
-        <v>382.60715354234</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.0571498693516</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>872.5811936025335</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>706.7032008040562</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>536.9451970547935</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>360.2381430165498</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>194.6468680423774</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.162934933549</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.283488512004</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>1987.850487765109</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1700.894979635539</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1428.868575221831</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.476820555243</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.0571498693516</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1078.651074442687</v>
+        <v>1643.925021918072</v>
       </c>
       <c r="C14" t="n">
-        <v>640.5086016261107</v>
+        <v>1205.782549101495</v>
       </c>
       <c r="D14" t="n">
-        <v>204.5988168005552</v>
+        <v>1205.782549101495</v>
       </c>
       <c r="E14" t="n">
-        <v>54.74469373275195</v>
+        <v>772.0078042597902</v>
       </c>
       <c r="F14" t="n">
-        <v>54.74469373275195</v>
+        <v>344.1403746689979</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M14" t="n">
-        <v>732.2102786755574</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N14" t="n">
-        <v>1409.675863618363</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O14" t="n">
-        <v>1513.270315736198</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P14" t="n">
-        <v>2190.735900679003</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W14" t="n">
-        <v>2332.379232048631</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X14" t="n">
-        <v>1913.236768627942</v>
+        <v>2478.510716103326</v>
       </c>
       <c r="Y14" t="n">
-        <v>1504.950644927595</v>
+        <v>2070.224592402979</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L15" t="n">
-        <v>363.05328532595</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M15" t="n">
-        <v>1040.518870268755</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N15" t="n">
-        <v>1717.984455211561</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="O15" t="n">
-        <v>1717.984455211561</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="P15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>905.2407308096831</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>732.679019292908</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>566.8010264944307</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
-        <v>397.0430227451681</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2653.165134592867</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2407.285688171322</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2128.852687424428</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1841.897179294858</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1569.87077488115</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1324.479020214562</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.05934952867</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5601,19 +5603,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,46 +5758,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5840,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="P21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5938,22 +5940,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.872751300483</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1700.846346886775</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.454592220187</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6014,25 +6016,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>4648.527086152673</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,22 +6229,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>1601.005850966132</v>
       </c>
       <c r="M26" t="n">
-        <v>2769.623329187108</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N26" t="n">
-        <v>3895.354312623555</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>4875.533979193861</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4875.533979193861</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6315,16 +6317,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D29" t="n">
         <v>1654.847790009657</v>
@@ -6452,37 +6454,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6494,16 +6496,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
         <v>2955.199618136697</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>287.8657185439749</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3314.218903505964</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3314.218903505964</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3148.340910707486</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2978.582906958224</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2801.87585291998</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4142.53268953897</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>3870.506285125261</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3625.114530458674</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3397.694859772782</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1431.851786213076</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="M33" t="n">
-        <v>414.500552094942</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,49 +6940,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1434.966015313368</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7262,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.855915180241</v>
+        <v>1786.474744857284</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.713442363665</v>
+        <v>1348.332272040707</v>
       </c>
       <c r="D41" t="n">
-        <v>916.8036575381091</v>
+        <v>912.4224872151517</v>
       </c>
       <c r="E41" t="n">
-        <v>483.0289126964042</v>
+        <v>478.6477423734469</v>
       </c>
       <c r="F41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M41" t="n">
-        <v>732.2102786755574</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N41" t="n">
-        <v>732.2102786755574</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="W41" t="n">
-        <v>2618.284502301277</v>
+        <v>3040.202902463227</v>
       </c>
       <c r="X41" t="n">
-        <v>2199.142038880588</v>
+        <v>2621.060439042538</v>
       </c>
       <c r="Y41" t="n">
-        <v>1790.855915180241</v>
+        <v>2212.774315342192</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N42" t="n">
-        <v>363.05328532595</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O42" t="n">
-        <v>1040.518870268755</v>
+        <v>799.6463285888539</v>
       </c>
       <c r="P42" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q42" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.5516301451364</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>706.9899186283614</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>541.1119258298841</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
-        <v>371.3539220806213</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>194.6468680423774</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>194.6468680423774</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2627.47603392832</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2381.596587506775</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>2103.163586759881</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>1816.208078630311</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1544.181674216603</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1298.789919550015</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1071.370248864124</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1790.855915180241</v>
+        <v>1747.319669301262</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.713442363665</v>
+        <v>1309.177196484685</v>
       </c>
       <c r="D44" t="n">
-        <v>916.8036575381091</v>
+        <v>873.2674116591297</v>
       </c>
       <c r="E44" t="n">
-        <v>483.0289126964042</v>
+        <v>439.4926668174249</v>
       </c>
       <c r="F44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M44" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N44" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>2653.582812821435</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V44" t="n">
-        <v>2653.582812821435</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="W44" t="n">
-        <v>2653.582812821435</v>
+        <v>3001.047826907205</v>
       </c>
       <c r="X44" t="n">
-        <v>2625.441609365496</v>
+        <v>2581.905363486516</v>
       </c>
       <c r="Y44" t="n">
-        <v>2217.155485665149</v>
+        <v>2173.61923978617</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N45" t="n">
-        <v>499.7799316366797</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O45" t="n">
-        <v>1177.245516579485</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="P45" t="n">
-        <v>1177.245516579485</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>905.2407308096831</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C46" t="n">
-        <v>732.679019292908</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D46" t="n">
-        <v>566.8010264944307</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E46" t="n">
-        <v>397.0430227451681</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F46" t="n">
-        <v>220.3359687069243</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2653.165134592867</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T46" t="n">
-        <v>2407.285688171322</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U46" t="n">
-        <v>2128.852687424428</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V46" t="n">
-        <v>1841.897179294858</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W46" t="n">
-        <v>1569.87077488115</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X46" t="n">
-        <v>1324.479020214562</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.05934952867</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8070,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
-        <v>331.1742018278667</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8222,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>618.0868407147311</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="P6" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>618.0868407147311</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8538,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>311.4228197911091</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593994</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
-        <v>618.0868407147311</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>331.1742018278667</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593995</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>104.640860725086</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9486,16 +9488,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599073</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9875,25 +9877,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>231.4545770548052</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>239.9071053991102</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10124,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>677.9686009664961</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>161.1527324371088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>115.0433628885244</v>
       </c>
       <c r="M33" t="n">
-        <v>315.3936483072347</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10662,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10908,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>684.3086716593995</v>
+        <v>733.6806231366372</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593994</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N44" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11385,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -22550,13 +22552,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>360.1009577987584</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117.4202099191323</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22717,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.146865729424178</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,13 +22837,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>25.85067163556062</v>
+        <v>137.6289218689557</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>5.132153028921493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23021,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23078,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>48.33166256840104</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>201.8142751191967</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23188,10 +23190,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23261,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>176.4683648140552</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>88.19489769745738</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>281.0814155561625</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>129.254368707408</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23552,7 +23554,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>107.2592358276467</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>223.1369608195781</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>22.29697691191922</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25646,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -25688,7 +25690,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>283.0462175501193</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>114.1599680048239</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>61.06050171238093</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25883,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>387.0912473651028</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>412054.7111519983</v>
+        <v>498045.6119568792</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>412054.7111519982</v>
+        <v>498045.6119568791</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>412054.7111519982</v>
+        <v>498045.6119568792</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>412054.7111519982</v>
+        <v>498045.6119568793</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>412054.7111519982</v>
+        <v>498045.6119568793</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632229.1009648228</v>
+        <v>632229.1009648227</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632229.1009648228</v>
+        <v>632229.1009648227</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>412054.7111519982</v>
+        <v>498045.6119568793</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>412054.7111519981</v>
+        <v>498045.6119568792</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="C2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="D2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="E2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="F2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="G2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="H2" t="n">
+        <v>289771.6712755439</v>
+      </c>
+      <c r="I2" t="n">
         <v>289771.6712755438</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
         <v>289771.6712755437</v>
       </c>
       <c r="K2" t="n">
+        <v>289771.6712755437</v>
+      </c>
+      <c r="L2" t="n">
         <v>289771.6712755438</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>289771.6712755437</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289771.6712755439</v>
       </c>
       <c r="N2" t="n">
         <v>289771.6712755437</v>
       </c>
       <c r="O2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="P2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="C4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833581</v>
       </c>
       <c r="D4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833581</v>
       </c>
       <c r="E4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="F4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26445,19 +26447,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
+        <v>806.3323907826024</v>
+      </c>
+      <c r="M4" t="n">
         <v>806.3323907826023</v>
       </c>
-      <c r="M4" t="n">
-        <v>806.3323907826024</v>
-      </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="O4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="P4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116228.2592949803</v>
+        <v>-168768.7711300879</v>
       </c>
       <c r="C6" t="n">
-        <v>113099.3156775325</v>
+        <v>138298.1991566298</v>
       </c>
       <c r="D6" t="n">
-        <v>113099.3156775326</v>
+        <v>138298.1991566298</v>
       </c>
       <c r="E6" t="n">
-        <v>146726.9156775326</v>
+        <v>171925.7991566298</v>
       </c>
       <c r="F6" t="n">
-        <v>146726.9156775325</v>
+        <v>171925.7991566298</v>
       </c>
       <c r="G6" t="n">
-        <v>48453.81248052724</v>
+        <v>112034.0566436967</v>
       </c>
       <c r="H6" t="n">
         <v>211247.1002789687</v>
       </c>
       <c r="I6" t="n">
+        <v>211247.1002789687</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-28492.42930777406</v>
+      </c>
+      <c r="K6" t="n">
         <v>211247.1002789686</v>
       </c>
-      <c r="J6" t="n">
-        <v>32201.84219131671</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>211247.1002789687</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>211247.1002789686</v>
-      </c>
-      <c r="M6" t="n">
-        <v>211247.1002789687</v>
       </c>
       <c r="N6" t="n">
         <v>211247.1002789686</v>
       </c>
       <c r="O6" t="n">
-        <v>146726.9156775325</v>
+        <v>171925.7991566298</v>
       </c>
       <c r="P6" t="n">
-        <v>146726.9156775325</v>
+        <v>171925.7991566298</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34790,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
-        <v>331.1742018278667</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>618.0868407147311</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="P6" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>618.0868407147311</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35258,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>311.4228197911091</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593994</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35416,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
-        <v>618.0868407147311</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>331.1742018278667</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,22 +35655,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593995</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>104.640860725086</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599073</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>231.4545770548052</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>239.9071053991102</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>677.9686009664961</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>161.1527324371088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>115.0433628885244</v>
       </c>
       <c r="M33" t="n">
-        <v>315.3936483072347</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>684.3086716593995</v>
+        <v>733.6806231366372</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593994</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N44" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1015710.240449185</v>
+        <v>1014089.081957902</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2305207.638772117</v>
+        <v>2305207.638772116</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -673,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>139.209869737021</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>339.7463983306956</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -907,16 +907,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>221.361858696556</v>
+        <v>42.46085081726838</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>152.5168019860618</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1147,10 +1147,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>54.66819693977163</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>198.9926249238804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170459</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>202.3889873441468</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>252.0466196492161</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>268.1294843555607</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3751,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>401.2917783829651</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3988,10 +3988,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>362.5282535825034</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170459</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1625.88946142246</v>
+        <v>1808.996943758212</v>
       </c>
       <c r="C2" t="n">
-        <v>1625.88946142246</v>
+        <v>1370.854470941636</v>
       </c>
       <c r="D2" t="n">
-        <v>1625.88946142246</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E2" t="n">
-        <v>1192.114716580755</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F2" t="n">
-        <v>764.247286989963</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G2" t="n">
-        <v>362.8494556132268</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H2" t="n">
-        <v>73.7193010564431</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
         <v>73.30251168358311</v>
@@ -4357,25 +4357,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3581.473710362992</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3361.406483236031</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U2" t="n">
-        <v>3220.790453198636</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V2" t="n">
-        <v>2858.173503132462</v>
+        <v>3062.725101364156</v>
       </c>
       <c r="W2" t="n">
-        <v>2453.318048543496</v>
+        <v>3062.725101364156</v>
       </c>
       <c r="X2" t="n">
-        <v>2034.175585122807</v>
+        <v>2643.582637943467</v>
       </c>
       <c r="Y2" t="n">
-        <v>1625.88946142246</v>
+        <v>2235.29651424312</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="K3" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="L3" t="n">
-        <v>73.30251168358311</v>
+        <v>1006.484766928382</v>
       </c>
       <c r="M3" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N3" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O3" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P3" t="n">
         <v>1078.630556435977</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.944134917016</v>
+        <v>1808.996943758212</v>
       </c>
       <c r="C5" t="n">
-        <v>1344.80166210044</v>
+        <v>1370.854470941636</v>
       </c>
       <c r="D5" t="n">
-        <v>908.8918772748841</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E5" t="n">
-        <v>475.1171324331792</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F5" t="n">
-        <v>475.1171324331792</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G5" t="n">
-        <v>73.7193010564431</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H5" t="n">
-        <v>73.7193010564431</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
         <v>73.30251168358311</v>
@@ -4594,25 +4594,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U5" t="n">
-        <v>3665.125584179155</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V5" t="n">
-        <v>3441.527747111927</v>
+        <v>3059.294432252776</v>
       </c>
       <c r="W5" t="n">
-        <v>3036.67229252296</v>
+        <v>2654.43897766381</v>
       </c>
       <c r="X5" t="n">
-        <v>2617.529829102271</v>
+        <v>2235.29651424312</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.243705401924</v>
+        <v>2235.29651424312</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="K6" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="L6" t="n">
-        <v>73.30251168358311</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="M6" t="n">
-        <v>73.30251168358311</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="N6" t="n">
-        <v>980.4210937679239</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="O6" t="n">
-        <v>1736.542273162392</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P6" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
         <v>1736.542273162392</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>979.7989607786893</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C7" t="n">
-        <v>979.7989607786893</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D7" t="n">
-        <v>813.920967980212</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E7" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F7" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
         <v>73.30251168358311</v>
@@ -4752,25 +4752,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2535.904745842886</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T7" t="n">
-        <v>2290.025299421341</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U7" t="n">
-        <v>2011.592298674447</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V7" t="n">
-        <v>1724.636790544877</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W7" t="n">
-        <v>1452.610386131169</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X7" t="n">
-        <v>1207.218631464581</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.7989607786893</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2210.394775134949</v>
+        <v>2153.34749926426</v>
       </c>
       <c r="C8" t="n">
-        <v>1772.252302318372</v>
+        <v>1715.205026447684</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.342517492816</v>
+        <v>1279.295241622128</v>
       </c>
       <c r="E8" t="n">
-        <v>902.5677726511115</v>
+        <v>845.5204967804234</v>
       </c>
       <c r="F8" t="n">
-        <v>474.7003430603193</v>
+        <v>417.6530671896311</v>
       </c>
       <c r="G8" t="n">
-        <v>73.30251168358311</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H8" t="n">
         <v>73.30251168358311</v>
@@ -4810,13 +4810,13 @@
         <v>73.30251168358311</v>
       </c>
       <c r="L8" t="n">
-        <v>73.30251168358311</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M8" t="n">
-        <v>980.4210937679239</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N8" t="n">
-        <v>1214.044276549766</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O8" t="n">
         <v>2121.162858634107</v>
@@ -4831,25 +4831,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U8" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="V8" t="n">
-        <v>3665.125584179155</v>
+        <v>2998.789533169857</v>
       </c>
       <c r="W8" t="n">
-        <v>3464.122932740892</v>
+        <v>2998.789533169857</v>
       </c>
       <c r="X8" t="n">
-        <v>3044.980469320203</v>
+        <v>2579.647069749168</v>
       </c>
       <c r="Y8" t="n">
-        <v>2636.694345619856</v>
+        <v>2579.647069749168</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>980.4210937679239</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>980.4210937679239</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>1736.542273162392</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
         <v>1736.542273162392</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>782.7963491011951</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C10" t="n">
-        <v>610.2346375844201</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D10" t="n">
-        <v>444.3566447859428</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E10" t="n">
-        <v>274.59864103668</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F10" t="n">
-        <v>97.89158699843622</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G10" t="n">
         <v>73.30251168358311</v>
@@ -4989,25 +4989,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T10" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U10" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V10" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W10" t="n">
-        <v>1447.426393172662</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.034638506074</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y10" t="n">
-        <v>974.6149678201823</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2210.394775134949</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C11" t="n">
-        <v>1772.252302318372</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D11" t="n">
-        <v>1336.342517492816</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E11" t="n">
-        <v>902.5677726511115</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F11" t="n">
-        <v>474.7003430603193</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G11" t="n">
         <v>73.30251168358311</v>
@@ -5053,16 +5053,16 @@
         <v>980.4210937679239</v>
       </c>
       <c r="N11" t="n">
-        <v>1214.044276549766</v>
+        <v>1887.539675852265</v>
       </c>
       <c r="O11" t="n">
-        <v>2121.162858634107</v>
+        <v>2794.658257936606</v>
       </c>
       <c r="P11" t="n">
-        <v>2949.472733467504</v>
+        <v>3622.968132770002</v>
       </c>
       <c r="Q11" t="n">
-        <v>3495.971519426098</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R11" t="n">
         <v>3665.125584179155</v>
@@ -5086,7 +5086,7 @@
         <v>2841.1276661695</v>
       </c>
       <c r="Y11" t="n">
-        <v>2636.694345619856</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>980.4210937679239</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
         <v>1736.542273162392</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1643.925021918072</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="C14" t="n">
-        <v>1205.782549101495</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="D14" t="n">
-        <v>1205.782549101495</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E14" t="n">
-        <v>772.0078042597902</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F14" t="n">
-        <v>344.1403746689979</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G14" t="n">
         <v>73.30251168358311</v>
@@ -5287,10 +5287,10 @@
         <v>73.30251168358311</v>
       </c>
       <c r="M14" t="n">
-        <v>306.9256944654255</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N14" t="n">
-        <v>1214.044276549766</v>
+        <v>1887.539675852265</v>
       </c>
       <c r="O14" t="n">
         <v>2121.162858634107</v>
@@ -5308,22 +5308,22 @@
         <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3665.125584179155</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U14" t="n">
-        <v>3665.125584179155</v>
+        <v>3185.836054369211</v>
       </c>
       <c r="V14" t="n">
-        <v>3302.508634112982</v>
+        <v>2823.219104303037</v>
       </c>
       <c r="W14" t="n">
-        <v>2897.653179524015</v>
+        <v>2418.363649714071</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.510716103326</v>
+        <v>1999.221186293381</v>
       </c>
       <c r="Y14" t="n">
-        <v>2070.224592402979</v>
+        <v>1590.935062593035</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>980.4210937679239</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>980.4210937679239</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
         <v>1736.542273162392</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,46 +5758,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,49 +5992,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>4648.527086152673</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>5113.042013538981</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
-        <v>5113.042013538981</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1601.005850966132</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2758.053686176683</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,22 +6302,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O27" t="n">
         <v>287.8657185439749</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
         <v>1654.847790009657</v>
@@ -6454,19 +6454,19 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L29" t="n">
         <v>306.120802776629</v>
@@ -6496,16 +6496,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
         <v>2955.199618136697</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3365.117609755799</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>3192.555898239023</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>3026.677905440546</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>2856.919901691283</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>2680.21284765304</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5113.042013538981</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>4867.162567117437</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>4588.729566370543</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>4301.774058240973</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>4029.747653827265</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>3784.355899160677</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>3556.936228474786</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6943,25 +6943,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7013,22 +7013,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
         <v>287.8657185439749</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7180,46 +7180,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766281</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987179</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>126.8499155856325</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1786.474744857284</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C41" t="n">
-        <v>1348.332272040707</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D41" t="n">
-        <v>912.4224872151517</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6477423734469</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F41" t="n">
-        <v>73.30251168358311</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G41" t="n">
         <v>73.30251168358311</v>
@@ -7420,10 +7420,10 @@
         <v>73.30251168358311</v>
       </c>
       <c r="M41" t="n">
-        <v>306.9256944654255</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N41" t="n">
-        <v>1214.044276549766</v>
+        <v>1887.539675852265</v>
       </c>
       <c r="O41" t="n">
         <v>2121.162858634107</v>
@@ -7441,22 +7441,22 @@
         <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3445.058357052194</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>3445.058357052194</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>3445.058357052194</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.202902463227</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X41" t="n">
-        <v>2621.060439042538</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y41" t="n">
-        <v>2212.774315342192</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>799.6463285888539</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
         <v>1619.369495068052</v>
@@ -7596,7 +7596,7 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.722952543698</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T43" t="n">
         <v>2425.843506122153</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1747.319669301262</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>1309.177196484685</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>873.2674116591297</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>439.4926668174249</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>73.30251168358311</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G44" t="n">
         <v>73.30251168358311</v>
@@ -7657,10 +7657,10 @@
         <v>73.30251168358311</v>
       </c>
       <c r="M44" t="n">
-        <v>306.9256944654255</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N44" t="n">
-        <v>1214.044276549766</v>
+        <v>1887.539675852265</v>
       </c>
       <c r="O44" t="n">
         <v>2121.162858634107</v>
@@ -7681,19 +7681,19 @@
         <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3405.903281496172</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>3405.903281496172</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>3001.047826907205</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>2581.905363486516</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>2173.61923978617</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>980.4210937679239</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
         <v>1736.542273162392</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>782.7963491011951</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>610.2346375844201</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>444.3566447859428</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>274.59864103668</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>97.89158699843622</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
         <v>73.30251168358311</v>
@@ -7833,25 +7833,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1447.426393172662</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.034638506074</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>974.6149678201823</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8063,19 +8063,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72.87453485615652</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,16 +8458,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M8" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O11" t="n">
         <v>916.2813960447888</v>
@@ -8710,10 +8710,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>42.58328425167019</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N14" t="n">
-        <v>916.2813960447888</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447888</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9652,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>231.4545770548052</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10363,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>115.0433628885244</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463116</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447888</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447888</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>733.6806231366372</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11305,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447888</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447888</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>117.4202099191323</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.24438223481616</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>137.6289218689557</v>
+        <v>316.5299297482434</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>5.132153028921493</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23035,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>342.7156561231971</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>201.8142751191967</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>201.8142751191963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>169.9899551308426</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>129.254368707408</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23548,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1599680048248</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>22.29697691191922</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25681,7 +25681,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>61.06050171238093</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25921,7 +25921,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498045.6119568792</v>
+        <v>498045.6119568791</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498045.6119568791</v>
+        <v>498045.6119568792</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498045.6119568792</v>
+        <v>498045.6119568793</v>
       </c>
     </row>
     <row r="5">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632229.1009648227</v>
+        <v>632229.1009648228</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632229.1009648227</v>
+        <v>632229.1009648228</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498045.6119568792</v>
+        <v>498045.6119568793</v>
       </c>
     </row>
   </sheetData>
@@ -26325,16 +26325,16 @@
         <v>228270.9054802363</v>
       </c>
       <c r="F2" t="n">
-        <v>228270.9054802363</v>
+        <v>228270.9054802364</v>
       </c>
       <c r="G2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="H2" t="n">
-        <v>289771.6712755439</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="I2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
         <v>289771.6712755437</v>
@@ -26343,10 +26343,10 @@
         <v>289771.6712755437</v>
       </c>
       <c r="L2" t="n">
+        <v>289771.6712755437</v>
+      </c>
+      <c r="M2" t="n">
         <v>289771.6712755438</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289771.6712755437</v>
       </c>
       <c r="N2" t="n">
         <v>289771.6712755437</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>635.1974440833579</v>
+      </c>
+      <c r="C4" t="n">
         <v>635.1974440833578</v>
       </c>
-      <c r="C4" t="n">
-        <v>635.1974440833581</v>
-      </c>
       <c r="D4" t="n">
-        <v>635.1974440833581</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="E4" t="n">
-        <v>635.1974440833579</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="F4" t="n">
-        <v>635.1974440833579</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826024</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26447,19 +26447,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>635.1974440833579</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="P4" t="n">
-        <v>635.1974440833579</v>
+        <v>635.1974440833578</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168768.7711300879</v>
+        <v>-169071.5444049038</v>
       </c>
       <c r="C6" t="n">
-        <v>138298.1991566298</v>
+        <v>137995.425881814</v>
       </c>
       <c r="D6" t="n">
-        <v>138298.1991566298</v>
+        <v>137995.425881814</v>
       </c>
       <c r="E6" t="n">
-        <v>171925.7991566298</v>
+        <v>171623.025881814</v>
       </c>
       <c r="F6" t="n">
-        <v>171925.7991566298</v>
+        <v>171623.025881814</v>
       </c>
       <c r="G6" t="n">
-        <v>112034.0566436967</v>
+        <v>112010.8323043141</v>
       </c>
       <c r="H6" t="n">
-        <v>211247.1002789687</v>
+        <v>211223.875939586</v>
       </c>
       <c r="I6" t="n">
-        <v>211247.1002789687</v>
+        <v>211223.875939586</v>
       </c>
       <c r="J6" t="n">
-        <v>-28492.42930777406</v>
+        <v>-28515.65364715673</v>
       </c>
       <c r="K6" t="n">
-        <v>211247.1002789686</v>
+        <v>211223.875939586</v>
       </c>
       <c r="L6" t="n">
-        <v>211247.1002789687</v>
+        <v>211223.875939586</v>
       </c>
       <c r="M6" t="n">
-        <v>211247.1002789686</v>
+        <v>211223.8759395861</v>
       </c>
       <c r="N6" t="n">
-        <v>211247.1002789686</v>
+        <v>211223.875939586</v>
       </c>
       <c r="O6" t="n">
-        <v>171925.7991566298</v>
+        <v>171623.025881814</v>
       </c>
       <c r="P6" t="n">
-        <v>171925.7991566298</v>
+        <v>171623.025881814</v>
       </c>
     </row>
   </sheetData>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72.87453485615652</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M8" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458551</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,19 +35421,19 @@
         <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O11" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>42.58328425167019</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N14" t="n">
-        <v>916.2813960447888</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447888</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458551</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>231.4545770548052</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36688,7 +36688,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>115.0433628885244</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463116</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447888</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447888</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458551</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>733.6806231366372</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38025,13 +38025,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.983012910952</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447888</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447888</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458551</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
